--- a/docs/excel/TBirckInfo.xlsx
+++ b/docs/excel/TBirckInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="29355" yWindow="225" windowWidth="26670" windowHeight="11085" tabRatio="204"/>
+    <workbookView xWindow="300" yWindow="450" windowWidth="26670" windowHeight="10830" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TBirckInfo" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4-0-1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,22 +191,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11-0-0-1</t>
-  </si>
-  <si>
-    <t>9-2-1-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14-4-1-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19-6-2-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24-10-3-5</t>
+    <t>Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩虹砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4-1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-6-1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-8-1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-10-2-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-20-3-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-0-0-1</t>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1增益2负面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48-3000-1-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -241,7 +273,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +298,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -284,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,6 +357,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -661,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -672,10 +716,12 @@
     <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -686,16 +732,22 @@
         <v>24</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="F1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -714,8 +766,14 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -734,16 +792,22 @@
         <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -751,19 +815,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -771,19 +841,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -791,19 +867,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -811,19 +893,25 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -831,19 +919,25 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -851,22 +945,28 @@
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4500</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I10" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -874,22 +974,28 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3500</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>30</v>
       </c>
-      <c r="F11">
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
         <v>3</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I11" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -897,19 +1003,25 @@
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2500</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -917,22 +1029,28 @@
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2000</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>60</v>
       </c>
-      <c r="F13">
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
         <v>5</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I13" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -940,22 +1058,28 @@
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2500</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>60</v>
       </c>
-      <c r="F14">
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
         <v>6</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I14" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -963,22 +1087,28 @@
         <v>1</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2000</v>
       </c>
       <c r="E15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F15">
+        <v>30</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
         <v>7</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I15" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -986,19 +1116,25 @@
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3000</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>13</v>
       </c>
@@ -1006,22 +1142,28 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="8">
+        <v>52</v>
+      </c>
+      <c r="D17" s="9">
         <v>0</v>
       </c>
       <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
         <v>30</v>
       </c>
-      <c r="F17" s="8">
+      <c r="G17" s="8">
+        <v>2</v>
+      </c>
+      <c r="H17" s="8">
         <v>3</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>14</v>
       </c>
@@ -1029,22 +1171,28 @@
         <v>1</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="8">
+        <v>52</v>
+      </c>
+      <c r="D18" s="9">
         <v>0</v>
       </c>
       <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
         <v>45</v>
       </c>
-      <c r="F18" s="8">
+      <c r="G18" s="8">
+        <v>2</v>
+      </c>
+      <c r="H18" s="8">
         <v>5</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>15</v>
       </c>
@@ -1052,22 +1200,28 @@
         <v>1</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="8">
+        <v>52</v>
+      </c>
+      <c r="D19" s="9">
         <v>0</v>
       </c>
       <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
         <v>45</v>
       </c>
-      <c r="F19" s="8">
+      <c r="G19" s="8">
+        <v>2</v>
+      </c>
+      <c r="H19" s="8">
         <v>6</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>16</v>
       </c>
@@ -1075,22 +1229,28 @@
         <v>1</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="8">
+        <v>52</v>
+      </c>
+      <c r="D20" s="9">
         <v>0</v>
       </c>
       <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
         <v>40</v>
       </c>
-      <c r="F20" s="8">
+      <c r="G20" s="8">
+        <v>2</v>
+      </c>
+      <c r="H20" s="8">
         <v>7</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>17</v>
       </c>
@@ -1098,22 +1258,28 @@
         <v>1</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="11">
+        <v>52</v>
+      </c>
+      <c r="D21" s="12">
         <v>0</v>
       </c>
       <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
         <v>30</v>
       </c>
-      <c r="F21" s="11">
+      <c r="G21" s="11">
+        <v>2</v>
+      </c>
+      <c r="H21" s="11">
         <v>3</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>18</v>
       </c>
@@ -1121,22 +1287,28 @@
         <v>1</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="11">
+        <v>52</v>
+      </c>
+      <c r="D22" s="12">
         <v>0</v>
       </c>
       <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
         <v>30</v>
       </c>
-      <c r="F22" s="11">
+      <c r="G22" s="11">
+        <v>2</v>
+      </c>
+      <c r="H22" s="11">
         <v>5</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>19</v>
       </c>
@@ -1144,22 +1316,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="11">
+        <v>52</v>
+      </c>
+      <c r="D23" s="12">
         <v>0</v>
       </c>
       <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
         <v>30</v>
       </c>
-      <c r="F23" s="11">
+      <c r="G23" s="11">
+        <v>2</v>
+      </c>
+      <c r="H23" s="11">
         <v>6</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>20</v>
       </c>
@@ -1167,50 +1345,81 @@
         <v>1</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="11">
+        <v>52</v>
+      </c>
+      <c r="D24" s="12">
         <v>0</v>
       </c>
       <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
         <v>25</v>
       </c>
-      <c r="F24" s="11">
+      <c r="G24" s="11">
+        <v>2</v>
+      </c>
+      <c r="H24" s="11">
         <v>7</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25"/>
-      <c r="B25"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I24" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>21</v>
+      </c>
+      <c r="B25" s="14">
+        <v>1</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14">
+        <v>9</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
     </row>

--- a/docs/excel/TBirckInfo.xlsx
+++ b/docs/excel/TBirckInfo.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="450" windowWidth="26670" windowHeight="10830" tabRatio="204"/>
   </bookViews>
@@ -705,10 +705,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -821,7 +822,7 @@
         <v>44</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -847,7 +848,7 @@
         <v>45</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -873,7 +874,7 @@
         <v>45</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -899,7 +900,7 @@
         <v>45</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -925,7 +926,7 @@
         <v>45</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1440,6 +1441,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">

--- a/docs/excel/TBirckInfo.xlsx
+++ b/docs/excel/TBirckInfo.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="450" windowWidth="26670" windowHeight="10830" tabRatio="204"/>
+    <workbookView xWindow="29355" yWindow="225" windowWidth="26670" windowHeight="11085" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TBirckInfo" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -147,6 +147,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4-0-1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,58 +195,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩虹砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-4-1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9-6-1-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14-8-1-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19-10-2-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24-20-3-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-0-0-1</t>
-  </si>
-  <si>
-    <t>kind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1增益2负面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48-3000-1-6</t>
+    <t>11-0-0-1</t>
+  </si>
+  <si>
+    <t>9-2-1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-4-1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-6-2-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-10-3-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +241,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,12 +266,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -322,7 +284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -357,12 +319,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -705,11 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -717,12 +672,10 @@
     <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.19921875" customWidth="1"/>
+    <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -733,22 +686,16 @@
         <v>24</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -767,14 +714,8 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,7 +723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -793,22 +734,16 @@
         <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -816,25 +751,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -842,25 +771,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -868,25 +791,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="7" t="s">
         <v>45</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -894,25 +811,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -920,25 +831,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -946,28 +851,22 @@
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="5">
-        <v>4500</v>
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
         <v>2</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -975,28 +874,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="5">
-        <v>3500</v>
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>30</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
         <v>3</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G11" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1004,25 +897,19 @@
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2500</v>
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1030,28 +917,22 @@
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2000</v>
+        <v>43</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F13">
-        <v>60</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
         <v>5</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G13" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1059,28 +940,22 @@
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2500</v>
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F14">
-        <v>60</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
         <v>6</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G14" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1088,28 +963,22 @@
         <v>1</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2000</v>
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F15">
-        <v>30</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
         <v>7</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G15" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1117,25 +986,19 @@
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="5">
-        <v>3000</v>
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>13</v>
       </c>
@@ -1143,28 +1006,22 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="9">
+        <v>43</v>
+      </c>
+      <c r="D17" s="8">
         <v>0</v>
       </c>
       <c r="E17" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F17" s="8">
-        <v>30</v>
-      </c>
-      <c r="G17" s="8">
-        <v>2</v>
-      </c>
-      <c r="H17" s="8">
         <v>3</v>
       </c>
-      <c r="I17" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>14</v>
       </c>
@@ -1172,28 +1029,22 @@
         <v>1</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="9">
+        <v>43</v>
+      </c>
+      <c r="D18" s="8">
         <v>0</v>
       </c>
       <c r="E18" s="8">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F18" s="8">
-        <v>45</v>
-      </c>
-      <c r="G18" s="8">
-        <v>2</v>
-      </c>
-      <c r="H18" s="8">
         <v>5</v>
       </c>
-      <c r="I18" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>15</v>
       </c>
@@ -1201,28 +1052,22 @@
         <v>1</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="9">
+        <v>43</v>
+      </c>
+      <c r="D19" s="8">
         <v>0</v>
       </c>
       <c r="E19" s="8">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F19" s="8">
-        <v>45</v>
-      </c>
-      <c r="G19" s="8">
-        <v>2</v>
-      </c>
-      <c r="H19" s="8">
         <v>6</v>
       </c>
-      <c r="I19" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>16</v>
       </c>
@@ -1230,28 +1075,22 @@
         <v>1</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="9">
+        <v>43</v>
+      </c>
+      <c r="D20" s="8">
         <v>0</v>
       </c>
       <c r="E20" s="8">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F20" s="8">
-        <v>40</v>
-      </c>
-      <c r="G20" s="8">
-        <v>2</v>
-      </c>
-      <c r="H20" s="8">
         <v>7</v>
       </c>
-      <c r="I20" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>17</v>
       </c>
@@ -1259,28 +1098,22 @@
         <v>1</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="12">
+        <v>43</v>
+      </c>
+      <c r="D21" s="11">
         <v>0</v>
       </c>
       <c r="E21" s="11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F21" s="11">
-        <v>30</v>
-      </c>
-      <c r="G21" s="11">
-        <v>2</v>
-      </c>
-      <c r="H21" s="11">
         <v>3</v>
       </c>
-      <c r="I21" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>18</v>
       </c>
@@ -1288,28 +1121,22 @@
         <v>1</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="12">
+        <v>43</v>
+      </c>
+      <c r="D22" s="11">
         <v>0</v>
       </c>
       <c r="E22" s="11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F22" s="11">
-        <v>30</v>
-      </c>
-      <c r="G22" s="11">
-        <v>2</v>
-      </c>
-      <c r="H22" s="11">
         <v>5</v>
       </c>
-      <c r="I22" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>19</v>
       </c>
@@ -1317,28 +1144,22 @@
         <v>1</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="12">
+        <v>43</v>
+      </c>
+      <c r="D23" s="11">
         <v>0</v>
       </c>
       <c r="E23" s="11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F23" s="11">
-        <v>30</v>
-      </c>
-      <c r="G23" s="11">
-        <v>2</v>
-      </c>
-      <c r="H23" s="11">
         <v>6</v>
       </c>
-      <c r="I23" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>20</v>
       </c>
@@ -1346,81 +1167,50 @@
         <v>1</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="12">
+        <v>43</v>
+      </c>
+      <c r="D24" s="11">
         <v>0</v>
       </c>
       <c r="E24" s="11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F24" s="11">
-        <v>25</v>
-      </c>
-      <c r="G24" s="11">
-        <v>2</v>
-      </c>
-      <c r="H24" s="11">
         <v>7</v>
       </c>
-      <c r="I24" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="14">
-        <v>21</v>
-      </c>
-      <c r="B25" s="14">
-        <v>1</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="15">
-        <v>0</v>
-      </c>
-      <c r="E25" s="14">
-        <v>0</v>
-      </c>
-      <c r="F25" s="14">
-        <v>0</v>
-      </c>
-      <c r="G25" s="14">
-        <v>0</v>
-      </c>
-      <c r="H25" s="14">
-        <v>9</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G24" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25"/>
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
     </row>
@@ -1441,7 +1231,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
